--- a/Modelos_Simplex.xlsx
+++ b/Modelos_Simplex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academicoufpb-my.sharepoint.com/personal/maria_regina2_academico_ufpb_br/Documents/Regina/Orientações - Regina Araújo/Mestrado/PO/Simplex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{B62C401B-837B-4318-965B-FC51185DB0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CC89DB8-6F61-41BF-AC2C-84FC409CA634}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{B62C401B-837B-4318-965B-FC51185DB0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37BB017-453D-483E-9DB9-BC64A9DF3D97}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo_1" sheetId="2" r:id="rId1"/>
@@ -122,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -178,12 +178,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -212,6 +236,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,8 +531,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,11 +547,11 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -928,7 +961,7 @@
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>

--- a/Modelos_Simplex.xlsx
+++ b/Modelos_Simplex.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academicoufpb-my.sharepoint.com/personal/maria_regina2_academico_ufpb_br/Documents/Regina/Orientações - Regina Araújo/Mestrado/PO/Simplex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{B62C401B-837B-4318-965B-FC51185DB0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37BB017-453D-483E-9DB9-BC64A9DF3D97}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="13_ncr:1_{B62C401B-837B-4318-965B-FC51185DB0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E8C47A-EAB2-470C-98D4-377ECCF8E38E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo_1" sheetId="2" r:id="rId1"/>
     <sheet name="Modelo_2" sheetId="4" r:id="rId2"/>
     <sheet name="Modelo_3" sheetId="7" r:id="rId3"/>
+    <sheet name="Modelo_4" sheetId="8" r:id="rId4"/>
+    <sheet name="Modelo_5" sheetId="9" r:id="rId5"/>
+    <sheet name="Modelo_6" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,13 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
-  <si>
-    <t>Variável</t>
-  </si>
-  <si>
-    <t>Objetivo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
   <si>
     <t>x1</t>
   </si>
@@ -70,9 +67,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>Restrições</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -80,6 +74,9 @@
   </si>
   <si>
     <t>&gt;=</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -90,7 +87,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +110,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,57 +152,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -207,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -215,37 +174,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,8 +473,192 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6328125" customWidth="1"/>
+    <col min="3" max="5" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D92C576-C2AE-4750-BDF4-9C99FF3EF5F7}">
+  <sheetPr codeName="Planilha4"/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,126 +666,124 @@
     <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.36328125" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -667,7 +791,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -675,7 +799,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -683,7 +807,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -691,7 +815,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -699,7 +823,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -707,224 +831,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D92C576-C2AE-4750-BDF4-9C99FF3EF5F7}">
-  <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="7">
-        <v>225</v>
-      </c>
-      <c r="D8" s="7">
-        <v>117</v>
-      </c>
-      <c r="E8" s="7">
-        <v>420</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -949,9 +856,7 @@
       <c r="F18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -959,10 +864,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1131E1-ED33-4DE1-A7E9-7F92D52D3D6D}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -973,141 +878,429 @@
     <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="E3" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>-2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="7">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B04F8D1-8AA6-48DB-BD12-DC6C7E3813E4}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E075436A-39D3-4D92-BE83-FF9A96FCCE1B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="8.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3B9786-F062-41E6-B326-D40E0C4999BF}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Modelos_Simplex.xlsx
+++ b/Modelos_Simplex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academicoufpb-my.sharepoint.com/personal/maria_regina2_academico_ufpb_br/Documents/Regina/Orientações - Regina Araújo/Mestrado/PO/Simplex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="13_ncr:1_{B62C401B-837B-4318-965B-FC51185DB0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E8C47A-EAB2-470C-98D4-377ECCF8E38E}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="13_ncr:1_{B62C401B-837B-4318-965B-FC51185DB0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07BFC0DE-853D-4A96-B572-634D3AC22E17}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo_1" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Modelo_4" sheetId="8" r:id="rId4"/>
     <sheet name="Modelo_5" sheetId="9" r:id="rId5"/>
     <sheet name="Modelo_6" sheetId="10" r:id="rId6"/>
+    <sheet name="Modelo_7" sheetId="11" r:id="rId7"/>
+    <sheet name="Modelo_8" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="17">
   <si>
     <t>x1</t>
   </si>
@@ -77,6 +79,21 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
   </si>
 </sst>
 </file>
@@ -166,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -188,6 +205,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1203,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3B9786-F062-41E6-B326-D40E0C4999BF}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1303,4 +1341,356 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B95A-6672-4365-B605-2D10FF1997B5}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E43FD7-8D80-4DD8-B26C-04532BA3B183}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>6</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>